--- a/data/signals/PMI_Manufacturing.xlsx
+++ b/data/signals/PMI_Manufacturing.xlsx
@@ -1,66 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedif\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\AltInv_Project\data\signals\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE9D53-9056-4467-A1D5-AC99CA3727A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>cedif</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>=DSGRID("USCNFBUSQ","","2000-01-01","2025-10-20","Daily","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>US ISM PURCHASING MANAGERS INDEX (MFG SURVEY) SADJ</t>
   </si>
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +59,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,22 +100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="refinitivshim.rtdserver.dsgrid">
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>1</stp>
-        <stp>521694812</stp>
-        <tr r="A1" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,20 +364,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE090F7-5550-4115-8994-A576360CB2CF}">
   <dimension ref="A1:B311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("USCNFBUSQ","","2000-01-01","2025-10-20","Daily","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true")</f>
-        <v>Name</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2897,9 +2866,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="REFI_OFFICE_FUNCTION_DATA" r:id="rId1"/>
-  </customProperties>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>